--- a/Cartel1.xlsx
+++ b/Cartel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E70FAB-8655-4022-AF94-F4A54B53F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7973C7-8C80-4276-BE7B-2324A2E2F1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B9AF10D2-783C-43C6-99FA-578CC631130E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -143,13 +143,31 @@
   </si>
   <si>
     <t>longo.jr.004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalogo di foto per generi </t>
+  </si>
+  <si>
+    <t>Revisione Lavoro</t>
+  </si>
+  <si>
+    <t>Creazione Sezione Amministratore</t>
+  </si>
+  <si>
+    <t>Creazione Sezione Utente</t>
+  </si>
+  <si>
+    <t>vittorioattianese18@gmail.com</t>
+  </si>
+  <si>
+    <t>peppeprisco45@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +197,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,13 +227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -523,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B7D46C-EB37-4B7E-A98F-8BB899AAEE88}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +586,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -574,7 +603,9 @@
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -589,7 +620,9 @@
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -604,7 +637,9 @@
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -612,14 +647,16 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -627,14 +664,16 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -642,29 +681,33 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -672,14 +715,16 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -687,14 +732,16 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -704,12 +751,14 @@
     </row>
     <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -717,14 +766,16 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -732,12 +783,14 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -745,12 +798,14 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -758,12 +813,16 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -771,14 +830,16 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -786,14 +847,16 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -801,12 +864,16 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -814,14 +881,16 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -862,10 +931,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -873,10 +942,10 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -918,9 +987,9 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -929,9 +998,9 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1115,46 +1184,26 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{C7D6B90B-7EDC-4DC4-97EF-B05CF37503E2}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{F12EC7B5-0BD1-4328-B4E9-07270C04EF58}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{4DE209CB-66E9-4FA2-BF66-6F963309F262}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{5E0625AC-6017-4245-9601-11252E92B531}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{EAEDFBCA-2734-4BFF-814A-1B2F8A55DAAD}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{72DC6257-9B1D-4385-938C-00792CCAAC68}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{BC5F6602-0032-4BEF-AE20-5FE862A25E95}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{2D6A6592-8978-42D1-A8BF-774D410E9C5E}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{4E5CEB1F-BBA3-43B6-9013-613F982120F7}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{9FCA6A1E-D9E8-43B3-9433-C07A5E909428}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{0840A140-BC29-4B12-8C6B-2D919E8F7F7A}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{35E2BDE5-0727-4BC8-8F23-93A0049636D1}"/>
-    <hyperlink ref="B10" r:id="rId13" xr:uid="{72EC5E34-0EAF-48D9-B537-7E22939136A0}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{63A6438D-937D-49D5-879A-0E98F5BDE6FA}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{5E0625AC-6017-4245-9601-11252E92B531}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{EAEDFBCA-2734-4BFF-814A-1B2F8A55DAAD}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{72DC6257-9B1D-4385-938C-00792CCAAC68}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{BC5F6602-0032-4BEF-AE20-5FE862A25E95}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{2D6A6592-8978-42D1-A8BF-774D410E9C5E}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{4E5CEB1F-BBA3-43B6-9013-613F982120F7}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{9FCA6A1E-D9E8-43B3-9433-C07A5E909428}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{0840A140-BC29-4B12-8C6B-2D919E8F7F7A}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{35E2BDE5-0727-4BC8-8F23-93A0049636D1}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{72EC5E34-0EAF-48D9-B537-7E22939136A0}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{63A6438D-937D-49D5-879A-0E98F5BDE6FA}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{F4F8311A-C74C-4F96-A287-9B9042C639A1}"/>
+    <hyperlink ref="B13" r:id="rId16" xr:uid="{0D6EE292-AD93-494C-B428-16992327D433}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>